--- a/Data Biding Christi.xlsx
+++ b/Data Biding Christi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\ACC-ACCPartner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\Clone ACCPartner 06072020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C62629-B20F-476B-B5E0-737241966B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06143733-4AB8-48C5-8237-AF5F3986BB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{66D43D55-EEB9-4D52-A162-6CD9FFE25DD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{66D43D55-EEB9-4D52-A162-6CD9FFE25DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="change phone number" sheetId="1" r:id="rId1"/>
@@ -181,12 +181,6 @@
     <t>xxx</t>
   </si>
   <si>
-    <t>Pusat Bantuan</t>
-  </si>
-  <si>
-    <t>syarat dan ketentuan akun</t>
-  </si>
-  <si>
     <t>verifikasi akun</t>
   </si>
   <si>
@@ -236,6 +230,12 @@
   </si>
   <si>
     <t>Password1#</t>
+  </si>
+  <si>
+    <t>Test FAQ</t>
+  </si>
+  <si>
+    <t>snk1</t>
   </si>
 </sst>
 </file>
@@ -721,62 +721,62 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -1092,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C886D0DF-DAE4-4590-912C-D1EFA9720F4F}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1131,10 +1131,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>31</v>
@@ -1152,16 +1152,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5" t="s">
@@ -1173,10 +1173,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>31</v>
@@ -1196,19 +1196,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>4</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
@@ -1236,19 +1236,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>44</v>
@@ -1257,19 +1257,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>44</v>
@@ -1327,10 +1327,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1338,10 +1338,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B03133-4134-4CFA-B279-0D6641AB8AEE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
